--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/74_Trabzon_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/74_Trabzon_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{197E103D-7D25-43B8-97B0-CD9A7E26FC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA2D91B-AC36-46AE-A436-BED30A925201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{8967DA5B-1926-4975-B74A-44947EAB52B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{22F2562C-9ED8-4ACB-A58F-577367B81314}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -962,15 +962,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{64E7D125-B654-4D2F-AA2E-EEC250FA0CCF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{20266CD3-637F-4224-9F21-51B7E7CDCC1D}"/>
-    <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{CB37BC90-0E19-4C06-B16C-B56CBB1E12DA}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{AB9CFC0C-EFC5-41F6-995A-28D02BE83EDE}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{03CEB874-0B4A-43A7-926D-3B71A88B6C44}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{E618A754-7F10-42F9-BD88-DA0F4C1DC321}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{AFD1578C-CDA7-47DE-85E1-B83A37C68897}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{BCDF758B-EC11-4517-9CEA-1FB792C5B040}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{89A1E692-A079-447D-8BF5-5ACB814A79CF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{29EA0343-03A7-4D44-9A85-38D4E2A57FEF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C984021D-CFCE-4EAB-B3F3-0E3259E2EFFB}"/>
+    <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{0DCC705A-4348-409B-AE8D-A112A113ADBE}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{3542ED0A-ED6D-4E40-94A9-6CCD2D071510}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{BEE410DC-62AC-4565-9598-C6B31566B1DA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{44F8350F-F9F7-437C-A71A-5436DC8F786F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{9F7766E2-B3FB-4A1A-AA2D-A21C8D0C8F4D}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{D289E82B-51E3-4504-B4B4-DD222B860106}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{A2C1BF18-42F7-4509-B1D9-6B1A92D2C988}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9E7E49-A64C-47E0-BCDC-2B58299EBC18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A7B01D-6AF5-4927-8C08-DC0B82C002F9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2601,18 +2601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64CA64D7-B46E-4FB6-AD3D-A667B8AB7E93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEF92336-BEBF-4C51-84BD-2089E5A2027D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4970E1DC-2EF6-4E40-9C70-B3D33F99531D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1AF906AA-BF5C-41CE-9EB4-BD346BAB1D10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF5025A2-5DB4-4B77-9923-EF8822FA978B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D412E6A-EEDB-4F4E-9D56-075861CEEE21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E0C7BB5-CEDC-41EC-83A1-6C466714EE74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CFF438B-7547-49B4-81BA-ED734B27F876}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4AB6F6E-8224-4C5D-820B-68489D2A9703}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{638A3B1F-C45B-457A-A682-E9601CCB8127}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEE22BE4-E225-4133-A173-C2811304F40B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27E77412-E0BA-4D6B-AC80-420090851FB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CD1928E-733E-4187-8D54-E2D10231D337}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41045E0B-57E0-414E-8740-215D534208A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B6C271F-FB6D-47CA-A4DE-69B58ACB6096}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7E54952-B19E-442A-A5AC-8CF3A782B9F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F81EBC3-57B3-470D-B227-08B0647D40DE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E6B85D3-8FF9-40CA-88CB-88636BA9E098}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3E0D5BA-D059-4016-87B5-DBF33432D04E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB728533-A493-45B7-B6F3-96FB530F4C53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8229574-F7E9-4356-A1CA-744CBD1C547C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3E53E36-8FA3-46C4-BC0B-A51AF123BA71}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EA41F75-0AA7-4CE3-9DEB-A4884F3A64A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F2020EC-4E12-42CC-9DBE-C18351115C21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5757470-8D55-42BC-A7C8-967E886F146F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDBF53A-83A7-4552-BB8B-39AF72587517}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3867,18 +3867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{007C8D73-286C-45C1-B46E-BF2059559641}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E179FE4-9DBF-4822-92CD-6993FA38D8BF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC3AC553-7E79-4A5B-A64A-0251F6324005}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7FE34562-FECD-48CC-A0E8-C062E5EF66D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C563C2E-FA6D-4FE3-BE8F-BB273D64A986}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ECA945B4-F738-442E-89EA-16B7FBA555F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13A11FE9-AC86-4BC5-9AD0-FC833AE9863C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B8A1A96-8485-4438-8AED-1D0D2E5EEE47}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40DEB1A1-611E-4E84-9C57-2762D2C997BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DA2D614-64E9-4948-AF04-CA6DC559F060}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D12E521-5B74-46AB-ADE0-CD183154F4DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{998324B8-782E-4CFF-8E46-314595026C7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5424159-5984-49DF-AE6E-CF3328160EF5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F73F77AB-9FBC-4D95-ACA4-F694AB5E135E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A521CFC-C32E-4489-8527-A47C34EE47DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E23A641-E16D-45FC-BA48-7189B34A8826}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CC48CEA-F70E-46E4-AAB8-F311A9CD1584}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{864C284D-2698-4A3E-8F7A-F9FAEA53AEDB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{237C3874-F5F8-4B00-A77F-3DD1DF72A1B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEC23945-9BDC-472E-9280-52D747E525CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E61F072-65A3-4586-BB78-A49AC0FB35E3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D1C215C-0AF9-4A01-B90E-93D5516FCFC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D38D1971-FD33-414B-BB03-13DCBFAB9AC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37FFD783-421C-4179-9466-764DC65F187A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3891,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02998703-26EF-4E53-A851-9B427C0A1809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8E2FB-D052-4E21-9543-91ADCA137D1D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5133,18 +5133,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6E23EB8-A8DE-4FAD-922E-4525BDAEFD4A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3FCEAA9-EFB0-4B3C-BB0D-C9E4EDDA0875}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{079A04F5-669C-4AC2-8A83-8C57A933825A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA02ACDC-2E86-4756-9F0C-6B15E4542F46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2E30880-BD10-4491-9B5C-8E7D0C2CCD3D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C13305B4-BDD9-4F52-87C7-CC738DAF5ABB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC85BB0D-3F2B-4885-AE02-D2AB6EE25BE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28537804-68A0-4C84-8B03-44F025FCA84B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B536E91D-3C5D-4913-A6F9-F79B8EB25090}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24893FA2-FAC8-4F49-AF16-D0D97E898BD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3298364D-3705-44AB-A663-8301F551F994}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75451173-B360-4509-97C3-D88D7BD587DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCAADA5E-2339-4B08-816B-212E8BBF8576}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEF94CB2-384F-4DC9-8E7F-83537DBB37A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{029DE588-2800-472F-9D1F-7607C43A93D3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BD7FD3F-8E2E-45D1-8EBA-549E8AC57425}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A9D19D0-ECCD-461D-A7C6-06082DD3D0BF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9E5A03B-9857-4502-A407-D0022192F82D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BBED5A3-89C9-4778-A397-2E9E5DF4E844}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DFF94F2-89EA-44BA-8963-AD664541FAD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AC2FCFA-44B1-4DAD-9007-BAF2940F304F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3B404F2-64B2-4776-BE42-143C8493A024}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79C9DDB6-8470-4EB7-823A-C594E7E9372A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4538518C-0647-41FD-8322-9C6E79594875}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5157,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB53DCC-0492-4F64-8E2B-42C2345DACE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC8F229-DD01-46F9-89D9-6EAC680B6094}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6395,18 +6395,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87BAE6A3-EA3B-48AA-859E-3154871E0BCB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2396959D-C6D8-4CD4-A96E-69221CB3A69D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A68A4E19-1EB5-4B64-98AB-340FA09781FD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCD44760-8B2B-4A27-8CE8-A05FCFAB6552}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26A4D590-B5A9-422B-96C5-6138253B4079}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{547C5BBF-E67E-43C5-83A3-960069E17DF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE988EB8-713F-4F19-9D3F-74C00EA5A3CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B95D42A0-675F-4151-B448-9564EA289A5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E3BB67D-5316-4F20-A587-EB9D6CEDCF19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{527CF4DE-27F2-4721-80B4-A592237A75BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB808CF0-44CA-4912-AEAB-41E70A01A218}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B760C1E-C66A-40B1-BDE1-2BEDF53AE3E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EA87306-7B5C-481B-A577-BF64F3C588E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81450F24-A599-4F1A-80E0-A08ED00B3D31}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{28F08A88-0B97-4736-8093-F4D6A1C5C14A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5FB8C1BA-9BB6-4F45-BCE6-FDD096170128}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BABB359-7DE2-48BC-B326-93A23EB3BEB8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0C353E0-CBC4-4350-86D6-58C469FF2AFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80A714CE-E20C-41CE-A1C5-2EA6577FC0EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{993D492B-C7F2-44EA-AB60-563D597860D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6FF0F9C-A910-43FC-8C1C-BFB66325FB04}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06A6A833-4A4E-4C34-90E5-CE95BCF73E2E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF4C6A7E-5A6C-4ADF-8760-03000A927C26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{006841FB-CC65-465B-9845-1AC49934A3E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6419,7 +6419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7659ECD1-BF83-4117-8042-E3F1BC050F5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE73B8-A781-4D59-A538-51E565333F55}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7682,18 +7682,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3C123A8-E7A0-4E6D-A4AE-708C9F0FF12B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A0B9273-24F7-4AF8-AB3A-46E55C6001B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D366BCD3-4F15-4014-BF47-8AC10A772C8B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1645E706-A4E4-4526-9210-AAC09753B815}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA9298B0-7F88-4A29-84AC-5CD2D7989A3A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5EA5DC90-FDCD-418C-8314-5E4CEFB6B57D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{671B3BC3-546F-45FB-BF49-DDCE77F73848}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3B3F47C-9818-494F-89C2-1A8F8497AAF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCC1F4CC-26CA-40FE-8702-6F884EE84D52}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8E7798FC-68A7-402A-9414-FC0CDBD23E55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11A1ACDA-BC02-4FAA-942C-687B1C838226}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6416DA4B-4F2E-46AF-B0B6-C9DEB5C78144}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CDFD274-86F0-4509-8781-A976200AEAA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{538ACE29-2BEC-44BD-B3EA-5B25BA1B9628}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85AB22D9-BA1B-47C1-A9DE-ACB9D7D18044}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F403FBA3-4CC9-4CA7-9E0F-ECEC51596F91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC913364-F0E3-4C8F-97A1-A07C10BC2CE2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAA7FF48-7E7A-4F67-B77A-D3E67614EFD7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E227161-3050-47D3-8CED-BC836A6CB99D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA16BB77-0A5E-4950-BE98-22C3B4CFD60B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1F90932-3AE9-4A9A-8330-F66475D37089}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F05DFFC5-6BBA-4734-A8F4-96CA4FC221B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A3C4A06-3EE4-4892-82F0-7A54ECCB7161}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56D3A390-DFB0-4C94-82F7-0C16F181468A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7706,7 +7706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6AF1E6-36D1-480A-B874-D1C4825BBB04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAAB78F-0460-4DA0-AB39-B0620A48BE42}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8971,18 +8971,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFE268CB-38F4-4ECF-B92F-DC785F03D806}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67665751-E23E-4090-8B28-BE7CFD05F585}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB6EBD1C-36A1-400A-AA89-C4D3D4075838}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{10DB7627-2BA4-458B-8FD6-34789716981F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F713D76-505E-4CF9-A9D1-C40CA5F99320}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5B0713FC-AC0B-4955-86C8-79421A98EBD0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CF50970-D230-4601-AC44-A2DC58894378}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52F0AD71-0F98-4CF5-9A71-285321B5A08D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0EF9E6D-8CD9-49F7-A6C1-F780BA82ECBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A7F11D5-D9DC-4E6F-8891-C66F2C0D595A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{544C2BD5-4354-4983-A823-9891AFF9DE84}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D195D04-AF01-4E71-A91F-8E32B5E5FA56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C9BD8212-BEAA-4665-AA6C-882BD573B308}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9DC0794-9CD9-4B78-A889-9408386CF26C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2DD16EF-D487-41BD-AFB9-64798E378823}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3646452-7A80-4139-B21B-7E1A0F902097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F20D399C-9BF2-4A19-B9F4-17B17DB203CA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{90D4746B-9FFC-4982-9C3D-918AAF17F0A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42410F61-CBC6-43AF-9053-E67C2F95A585}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFE3E757-13BF-4303-8B7E-66A5AE88FD48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40557AE0-93A2-4B91-8AFC-CF79518F53AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9E0CA19-1B1E-4424-AF0A-43F89B5439B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38AB0D5D-E08B-4BF5-94E0-2EA1E7DD8F34}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54E6816E-02E7-4A89-92FE-9BC7A8BBA37B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8995,7 +8995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60BF7FC-2FF0-47AE-9711-36E92F878C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F5516F-3A72-4D3A-9ACD-68FAEBB7AEB0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10256,18 +10256,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C748B50-A2ED-4020-952D-09F656673D23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{060EE833-65C6-414E-8AF7-D3377103D61D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{149DDBC5-F5C7-4FEA-ACA9-289AD11E1FFF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6A75535-F23A-4785-896B-C7D5AFBAC39A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B465949-32C3-464E-B119-2EC6B6040F88}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8236B596-882B-470C-BF11-0B84811BB483}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4D351A9-1E7D-42D2-9B61-5A9564EBD70F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DE3A12A-A511-48DC-94E8-81B3840D737F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3E362E8-E500-4ADC-82CD-3A447FD0200A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EE136AA-D001-4240-A1EA-FEA229E816D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81D0F092-9E51-4CB2-8E78-012D802647A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3413A3E1-927E-4FAF-8F5C-6F7A5974261E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D42B70E-151A-4C4D-BA9D-CCD67161ACE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F6AB1BE-4436-4EF9-8A5A-FDE1EF426A99}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA87F5DB-15D6-45D9-9F9C-9B07CEA63740}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9F5F0851-BB2A-4704-956E-472D86868A8C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C2E222A7-7F70-40F5-8F31-3BF8ACBDD0C1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{76007A4C-3E2A-4FD9-8D4C-298281F9901B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E413A23-1215-44A5-B992-1C2E07F3971F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{426F363C-DC8F-4741-AA9D-A803EFAF9EB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A22669C-5A99-4835-A521-018F10EAFA02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C4DE744-D234-47AB-AF99-C99017F97676}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52260E50-EF6A-49C2-9401-C6A049203E49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD35BA4C-FA71-417B-97ED-6DFDBE111C64}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10280,7 +10280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D30B5-87B8-4EDA-9128-6006C179F878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9524EF53-E235-419D-9FC6-810E385F7B4E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11539,18 +11539,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCFC2D46-50C7-4DA8-A1C7-A90D7D43E401}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8658FFAB-063E-4789-AC80-217844016D9B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{761C9EA8-1310-414B-8A6A-FC1DC92C6CE1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E4367154-31E1-4F1E-8E92-34C98B66CF1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29AA3662-DD3C-4A7C-9F25-E1EAF9A9B51E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5695EB5F-A67B-4FD5-AE95-011035BDFA53}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1712253B-6E02-49FE-B193-F8B851840DE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBE1D048-DF3D-4557-9F99-7839A094B82E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBC81161-B8C7-4E95-BB40-F8DB65B1CC30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E5A9F9F-9AA9-4AAB-945C-BF75E132C71A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0FBC188-C297-4D40-88C1-41569B09F9E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2497E959-B47D-4A9B-B61A-2FEA34A495DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0556451-718F-4CD8-8FEE-60BC36FC653E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B186CE35-5A03-426E-AF35-CA81E71B234A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC55512B-167E-4E47-AB65-B71F2C01D8B8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C046D433-EB7C-4C1D-908C-ADA9B31B15BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E3DB3E4-F8CA-4CA6-8287-A56A7ABA15A2}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{73AC8D8A-9B83-47F6-8B7B-672EC9E2A94B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4273B88C-3245-4215-A886-EC392906168D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D598FFC6-02F9-48F2-B71F-EFECF5DAA773}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C78609F3-B4CC-4BD6-8E66-8DC8BA275EE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47E24852-80AA-4369-A178-B2990421BB66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B44A3EB3-C3DB-4BC7-B5EE-95FCA8201047}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81FF6C1F-8D35-49B4-91A1-7D90E7561FC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11563,7 +11563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993FCAD6-CB86-4AFF-8E1A-048CBC67304B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C58E26-BA52-45DC-9A48-397D02D29273}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12819,18 +12819,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE1BC906-1590-447C-B3E5-72C0D42322E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C7C612C-076D-4974-98E7-FC011C0DE962}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E241B1E-7E9C-42B0-937F-4713B9021340}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F3007E2B-F0E9-4841-B9EA-AE54FBE912DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CDD8E4E-AE79-4093-A62B-3FE479ADB48B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70B5D2A6-16E6-4EFC-8621-926257930714}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A370FC21-66D9-4CDC-8A7E-04B4A09EAB81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFC99790-FA29-4C5C-A9A9-32CBDA1EF5F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8A4B74C-EA95-4374-BCBE-301F8BB8D83B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{481CEAEF-8AAE-471F-AB8B-70B0451051F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C768FD14-D587-4968-86D9-2FC424EB7735}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE3AA4B6-E08B-4DA6-B15F-E21DFBCC9EB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9E613B5-732A-4517-B76A-0455ABDDF682}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56ACE17F-2293-401F-85AA-52C058CD87EF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D319EE63-9216-4125-B902-48CDC5495C3A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A5A650B7-89FF-486A-A150-05ED43FC1D69}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E0F5BAE-EC6E-49BE-AD74-38D85CCF7FC8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{570178FE-8703-49E8-8A15-8166811DF35B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10B48F52-AF55-4358-9F93-8E5903E2C07C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65EEC112-AE11-43FD-B629-CB5A08B810D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADB5ABAC-9AA2-49A3-8963-02D7F1503DE6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC812E15-858A-4C4B-A257-B3164F5CC50F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2040A471-70A5-4BD8-803D-9F5B39B417E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E6DA684-E1F9-4BD5-94FE-A862BE9A8327}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12843,7 +12843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9012F76-573D-40E5-9A92-9CD00005E212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0C5810-B3E5-4F99-92A0-4C37D622D9F4}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14099,18 +14099,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67D4FDA5-230D-43F9-8C64-27D21E0B4223}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB408E84-1515-4F06-A513-DE3A9ADEDBE2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2388EB44-4C94-479B-AEFE-30C8609AE4D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B103B7A-4CC6-4FCD-B76B-350B0FEF02DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{306683DF-5434-4276-B689-07B0418E2FCD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{10223ECA-D857-43B0-8193-5DBBD87A6E77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6979D7C6-86CC-4F7E-8543-2F1EDBDAF1D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E4CA4B5-4E61-4855-939B-0E2ABFB70609}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C91F1D52-6D12-4A51-A05D-8D1E67C44604}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{837200F9-2FF7-4512-ADB1-EA5A6B0DD693}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18B9BCF8-4334-4CDD-AF9E-C6EFF5801499}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71613C72-74C5-47D8-B134-AF0207A39698}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B45AAA1F-52E5-4B63-8CC0-F58E552CC40F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C24CC73-D6D6-48E6-8887-DAB1D0EA5E44}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BED0FCA3-0F7E-43FA-8773-70B9BD380592}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64A064DA-2473-465A-B1D6-B621D2304F60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E45872C6-7F29-4508-9AB5-17320136B4BC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{347AA579-6955-4887-A7DD-392888174392}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB9F524D-A93E-4D54-972D-EAF98C30505B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57A34E31-0375-44D5-9B42-36C24D07E492}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{598F3B81-2ECC-46AE-834F-4EADA755BA23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2041315F-08DF-4D43-806C-C1BC3DAB6C6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9DCDD4E-1F1E-4418-97C0-3F9C17AB91D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63B02D3D-2430-431E-B197-C936CF23A145}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14123,7 +14123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED23B3A2-CCBC-4C24-90CD-513E0624305F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA4F6A4-354C-4ACA-A965-687BE80276E7}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15375,18 +15375,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{126EA6C2-7262-4D36-A1E3-157FDEA11ACB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{293C25FB-CCDE-4979-957B-8D44311EC0F4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E74A1594-EEFC-4E22-A6A1-CE8265060D23}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5DE8961-0115-4F7D-A1EB-F90D72707B5B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{654734E7-7B0D-4413-A5B6-E41D0F953D11}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{901F727F-1FF2-4F8B-985A-0E3438E1A9A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C3FE33F-5489-401C-B175-02C8933D8EBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEAC3F19-8F61-4997-8FDD-D5E073957C0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{491E31EB-0758-4DB4-8F5C-CE10CE8A6593}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B2DB3AE-51BC-48FB-8B64-31A60ABE2F30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03A3C512-6EDD-4209-9264-A26F3C80E0C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45EEBC64-3C9B-4455-A720-BC7204FD3677}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFB41A77-5D7D-4A8E-AD27-7CF98F54AEDC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3B4CD06-35FC-4AC2-9B0F-058803064008}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0EE27233-C904-46FF-986F-0786978B0D16}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B2AC1E4-7751-4B2D-98B2-DB3079E906A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C482996-69FB-4951-96A7-23EBEEEC0DEC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E0B86133-FC34-4C38-B30B-BD255ED21C1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EEFA068-5B01-46B1-B942-A14F861A351D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{354A1E22-65EA-4AF6-9B36-55B87AF848DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65E8BE96-02C3-4E37-AEEF-523F5F71D3B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5C5C0AF-61D5-4BD7-A2A7-851FEC3C594A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5172568A-04E3-4EFF-ABC5-BD6818EF27D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06304D06-6C07-4D47-AFD4-AE3250BECD5B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15399,7 +15399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E8197F-BA7A-4F85-9CFE-2F47B970A5E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19361BEC-2B3C-44D0-9398-5A31E42EFF61}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16653,18 +16653,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE804433-4641-4610-AB9D-E3973D12E432}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F6BC366-DA12-4D2D-A4E5-A524B8D60D1C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5538309D-7DB6-469D-B4CC-460EC5CA0129}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E73822D-A42F-447E-BD85-60D3C22D5881}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E2A2872-2785-412A-B606-15553A0E2951}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{27712F10-4D4E-47EA-8E82-8658C6102461}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1146C6B3-16EF-46E4-920E-44E07AB25C60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF9F0085-8B60-4345-A539-9AA6D5580F0C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26C22B7B-7B1A-4E25-A21D-B996447E16F7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0101BE08-185C-4781-8715-95A2A897D93F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6B361E9-846E-44EE-8F2C-CF11A7496848}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5761C302-67F5-4183-9D00-3F55846EBAD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A617E765-9639-45E0-AFF0-289E20F594D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{377BCD68-3F75-4DF8-94A2-697C2C56634C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47F83C67-983C-495C-B479-0CFC0AD1226F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A290BAF8-1E23-489B-B14F-4BDE326A5D39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{626DD426-FF47-43C2-B0BE-FA9B2C9BE25D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E298D2FD-276C-46B6-BBE8-E5D1CFCFDCBF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9F130F3-784F-46BA-8F50-88D29DE69C8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{550D89A8-A6F9-4732-96B1-9FFD4D0F9A50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6562444-69FB-4D3A-BA17-97DFD06D2D94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77DEFB89-E82C-4421-B7DA-0E674335F0FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A29E6CE8-60EE-4E3A-AC63-C351B8FB98F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71339D2C-E172-4ACE-95D9-C287361321C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
